--- a/planning werkprocessen.xlsx
+++ b/planning werkprocessen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjihdazihellingman\Desktop\Sjihdazi Hellingman stage documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjihdazihellingman\Desktop\Sjihdazi Hellingman stage documenten\stagedocumenten-2018-Multimove\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="Agenda" sheetId="14" r:id="rId1"/>
@@ -843,7 +843,7 @@
   </sheetPr>
   <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
